--- a/files/test_data_with_templates.xlsx
+++ b/files/test_data_with_templates.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
